--- a/Assets/Designs/General/Vector3Position.xlsx
+++ b/Assets/Designs/General/Vector3Position.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="27948" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Vector3</t>
+  </si>
+  <si>
+    <t>6.191f,1.22f,1.077f</t>
   </si>
   <si>
     <t>-2.5f,7.25f,-2f</t>
@@ -983,13 +986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1017,6 +1020,14 @@
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
